--- a/01_Dimension 1-10/03_Can Seam Micrometer(up to 13mm).xlsx
+++ b/01_Dimension 1-10/03_Can Seam Micrometer(up to 13mm).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="28860" windowHeight="18900" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="28860" windowHeight="18900"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="7" r:id="rId1"/>
@@ -1862,7 +1862,7 @@
     <xf numFmtId="181" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2635,43 +2635,64 @@
     </xf>
     <xf numFmtId="177" fontId="31" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,33 +2713,6 @@
     <xf numFmtId="166" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2728,22 +2722,31 @@
     <xf numFmtId="166" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2756,6 +2759,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2818,79 +2824,55 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -2926,28 +2908,16 @@
     <xf numFmtId="178" fontId="57" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2993,6 +2963,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3064,63 +3103,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,6 +3133,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3180,18 +3174,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="172" fontId="24" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -30871,8 +30853,8 @@
   </sheetPr>
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AB1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -31263,37 +31245,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="22.5" customHeight="1">
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
       <c r="M1" s="158" t="s">
         <v>66</v>
       </c>
       <c r="N1" s="158"/>
       <c r="O1" s="158"/>
       <c r="P1" s="158"/>
-      <c r="Q1" s="267" t="s">
+      <c r="Q1" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="267"/>
-      <c r="V1" s="267"/>
-      <c r="Z1" s="262" t="s">
+      <c r="R1" s="334"/>
+      <c r="S1" s="334"/>
+      <c r="T1" s="334"/>
+      <c r="U1" s="334"/>
+      <c r="V1" s="334"/>
+      <c r="Z1" s="331" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="262"/>
+      <c r="AA1" s="331"/>
       <c r="AB1" s="255">
         <v>1</v>
       </c>
@@ -31308,41 +31290,41 @@
       <c r="AG1" s="161"/>
     </row>
     <row r="2" spans="2:38" ht="22.5" customHeight="1">
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="159" t="s">
         <v>69</v>
       </c>
       <c r="N2" s="158"/>
       <c r="O2" s="159"/>
       <c r="P2" s="158"/>
-      <c r="Q2" s="269">
+      <c r="Q2" s="336">
         <v>42371</v>
       </c>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336"/>
       <c r="U2" s="159" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="158"/>
       <c r="W2" s="163"/>
       <c r="X2" s="163"/>
-      <c r="Z2" s="263">
+      <c r="Z2" s="332">
         <v>42372</v>
       </c>
-      <c r="AA2" s="263"/>
-      <c r="AB2" s="263"/>
-      <c r="AC2" s="263"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
       <c r="AD2" s="260"/>
       <c r="AE2" s="160"/>
       <c r="AF2" s="160"/>
@@ -31350,19 +31332,19 @@
       <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="2:38" ht="22.5" customHeight="1">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="340" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
       <c r="M3" s="158" t="s">
         <v>72</v>
       </c>
@@ -31370,17 +31352,17 @@
       <c r="O3" s="158"/>
       <c r="P3" s="158"/>
       <c r="Q3" s="158"/>
-      <c r="R3" s="268">
+      <c r="R3" s="335">
         <v>20</v>
       </c>
-      <c r="S3" s="268"/>
+      <c r="S3" s="335"/>
       <c r="T3" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="268">
+      <c r="U3" s="335">
         <v>50</v>
       </c>
-      <c r="V3" s="268"/>
+      <c r="V3" s="335"/>
       <c r="W3" s="165" t="s">
         <v>74</v>
       </c>
@@ -31399,19 +31381,19 @@
       <c r="AK3" s="26"/>
     </row>
     <row r="4" spans="2:38" ht="22.5" customHeight="1">
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="341" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
+      <c r="C4" s="341"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="341"/>
       <c r="M4" s="158" t="s">
         <v>31</v>
       </c>
@@ -31451,31 +31433,31 @@
       <c r="D5" s="244"/>
       <c r="E5" s="244"/>
       <c r="F5" s="244"/>
-      <c r="G5" s="264" t="s">
+      <c r="G5" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="264"/>
-      <c r="Q5" s="264"/>
-      <c r="R5" s="264"/>
-      <c r="S5" s="264"/>
-      <c r="T5" s="264"/>
-      <c r="U5" s="264"/>
-      <c r="V5" s="264"/>
-      <c r="W5" s="264"/>
-      <c r="X5" s="264"/>
-      <c r="Y5" s="264"/>
-      <c r="Z5" s="264"/>
-      <c r="AA5" s="264"/>
-      <c r="AB5" s="264"/>
-      <c r="AC5" s="264"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="333"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="333"/>
+      <c r="R5" s="333"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="333"/>
+      <c r="W5" s="333"/>
+      <c r="X5" s="333"/>
+      <c r="Y5" s="333"/>
+      <c r="Z5" s="333"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="333"/>
+      <c r="AC5" s="333"/>
       <c r="AD5" s="171"/>
       <c r="AE5" s="171"/>
       <c r="AK5" s="245"/>
@@ -31488,33 +31470,33 @@
       <c r="D6" s="244"/>
       <c r="E6" s="244"/>
       <c r="F6" s="244"/>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="328" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="281"/>
-      <c r="P6" s="281"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
+      <c r="M6" s="328"/>
+      <c r="N6" s="328"/>
+      <c r="O6" s="328"/>
+      <c r="P6" s="328"/>
       <c r="Q6" s="200" t="s">
         <v>78</v>
       </c>
       <c r="R6" s="200"/>
-      <c r="U6" s="281" t="s">
+      <c r="U6" s="328" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="281"/>
-      <c r="W6" s="281"/>
-      <c r="X6" s="281"/>
-      <c r="Y6" s="281"/>
-      <c r="Z6" s="281"/>
-      <c r="AA6" s="281"/>
-      <c r="AB6" s="281"/>
-      <c r="AC6" s="281"/>
+      <c r="V6" s="328"/>
+      <c r="W6" s="328"/>
+      <c r="X6" s="328"/>
+      <c r="Y6" s="328"/>
+      <c r="Z6" s="328"/>
+      <c r="AA6" s="328"/>
+      <c r="AB6" s="328"/>
+      <c r="AC6" s="328"/>
       <c r="AD6" s="171"/>
       <c r="AE6" s="171"/>
       <c r="AI6" s="246"/>
@@ -31535,31 +31517,31 @@
       <c r="J7" s="257"/>
       <c r="K7" s="257"/>
       <c r="L7" s="257"/>
-      <c r="M7" s="270" t="s">
+      <c r="M7" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="282">
+      <c r="N7" s="337"/>
+      <c r="O7" s="337"/>
+      <c r="P7" s="329">
         <v>123</v>
       </c>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="282"/>
-      <c r="S7" s="282"/>
-      <c r="T7" s="282"/>
-      <c r="U7" s="282"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="282"/>
-      <c r="X7" s="270" t="s">
+      <c r="Q7" s="329"/>
+      <c r="R7" s="329"/>
+      <c r="S7" s="329"/>
+      <c r="T7" s="329"/>
+      <c r="U7" s="329"/>
+      <c r="V7" s="329"/>
+      <c r="W7" s="329"/>
+      <c r="X7" s="337" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="281">
+      <c r="Y7" s="337"/>
+      <c r="Z7" s="328">
         <v>456</v>
       </c>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
+      <c r="AA7" s="328"/>
+      <c r="AB7" s="328"/>
+      <c r="AC7" s="328"/>
       <c r="AD7" s="171"/>
       <c r="AE7" s="171"/>
       <c r="AF7" s="247"/>
@@ -31574,30 +31556,30 @@
       </c>
       <c r="C8" s="171"/>
       <c r="D8" s="244"/>
-      <c r="E8" s="266">
+      <c r="E8" s="268">
         <v>0</v>
       </c>
-      <c r="F8" s="266"/>
+      <c r="F8" s="268"/>
       <c r="G8" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="266">
+      <c r="H8" s="268">
         <v>13</v>
       </c>
-      <c r="I8" s="266"/>
+      <c r="I8" s="268"/>
       <c r="J8" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="271" t="s">
+      <c r="L8" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="271"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="266">
+      <c r="M8" s="338"/>
+      <c r="N8" s="338"/>
+      <c r="O8" s="338"/>
+      <c r="P8" s="268">
         <v>0.01</v>
       </c>
-      <c r="Q8" s="266"/>
+      <c r="Q8" s="268"/>
       <c r="R8" s="167" t="s">
         <v>10</v>
       </c>
@@ -31605,8 +31587,8 @@
       <c r="V8" s="244"/>
       <c r="W8" s="247"/>
       <c r="X8" s="247"/>
-      <c r="Y8" s="338"/>
-      <c r="Z8" s="338"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
       <c r="AA8" s="167"/>
       <c r="AB8" s="167"/>
       <c r="AC8" s="167"/>
@@ -31702,30 +31684,30 @@
       <c r="E11" s="170"/>
       <c r="F11" s="170"/>
       <c r="G11" s="170"/>
-      <c r="H11" s="265"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="265"/>
+      <c r="H11" s="304"/>
+      <c r="I11" s="304"/>
+      <c r="J11" s="304"/>
+      <c r="K11" s="304"/>
+      <c r="L11" s="304"/>
+      <c r="M11" s="304"/>
+      <c r="N11" s="304"/>
+      <c r="O11" s="304"/>
+      <c r="P11" s="304"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="166"/>
       <c r="S11" s="174" t="s">
         <v>85</v>
       </c>
       <c r="T11" s="174"/>
-      <c r="U11" s="289"/>
-      <c r="V11" s="289"/>
-      <c r="W11" s="289"/>
-      <c r="X11" s="289"/>
-      <c r="Y11" s="289"/>
-      <c r="Z11" s="289"/>
-      <c r="AA11" s="289"/>
-      <c r="AB11" s="289"/>
-      <c r="AC11" s="289"/>
+      <c r="U11" s="330"/>
+      <c r="V11" s="330"/>
+      <c r="W11" s="330"/>
+      <c r="X11" s="330"/>
+      <c r="Y11" s="330"/>
+      <c r="Z11" s="330"/>
+      <c r="AA11" s="330"/>
+      <c r="AB11" s="330"/>
+      <c r="AC11" s="330"/>
       <c r="AD11" s="137"/>
       <c r="AE11" s="137"/>
       <c r="AF11" s="175"/>
@@ -31742,954 +31724,954 @@
       <c r="AL12" s="180"/>
     </row>
     <row r="13" spans="2:38" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B13" s="299" t="s">
+      <c r="B13" s="300" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="300"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="304" t="s">
+      <c r="C13" s="301"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="306" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="305"/>
-      <c r="G13" s="305"/>
-      <c r="H13" s="305"/>
-      <c r="I13" s="305"/>
-      <c r="J13" s="305"/>
-      <c r="K13" s="305"/>
-      <c r="L13" s="305"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="306"/>
-      <c r="Q13" s="310" t="s">
+      <c r="F13" s="307"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="307"/>
+      <c r="I13" s="307"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="307"/>
+      <c r="L13" s="307"/>
+      <c r="M13" s="307"/>
+      <c r="N13" s="307"/>
+      <c r="O13" s="307"/>
+      <c r="P13" s="308"/>
+      <c r="Q13" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="311"/>
-      <c r="S13" s="312"/>
-      <c r="T13" s="316" t="s">
+      <c r="R13" s="313"/>
+      <c r="S13" s="314"/>
+      <c r="T13" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="317"/>
-      <c r="V13" s="317"/>
-      <c r="W13" s="318"/>
-      <c r="X13" s="322" t="s">
+      <c r="U13" s="319"/>
+      <c r="V13" s="319"/>
+      <c r="W13" s="320"/>
+      <c r="X13" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="300"/>
-      <c r="Z13" s="301"/>
+      <c r="Y13" s="301"/>
+      <c r="Z13" s="302"/>
     </row>
     <row r="14" spans="2:38" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B14" s="302"/>
-      <c r="C14" s="265"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="307" t="s">
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="309" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="308"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="307" t="s">
+      <c r="F14" s="310"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="309" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="308"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="307" t="s">
+      <c r="I14" s="310"/>
+      <c r="J14" s="311"/>
+      <c r="K14" s="309" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="308"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="307" t="s">
+      <c r="L14" s="310"/>
+      <c r="M14" s="311"/>
+      <c r="N14" s="309" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="313"/>
-      <c r="R14" s="314"/>
-      <c r="S14" s="315"/>
-      <c r="T14" s="319"/>
-      <c r="U14" s="320"/>
-      <c r="V14" s="320"/>
-      <c r="W14" s="321"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="265"/>
-      <c r="Z14" s="303"/>
+      <c r="O14" s="310"/>
+      <c r="P14" s="311"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="316"/>
+      <c r="S14" s="317"/>
+      <c r="T14" s="321"/>
+      <c r="U14" s="322"/>
+      <c r="V14" s="322"/>
+      <c r="W14" s="323"/>
+      <c r="X14" s="303"/>
+      <c r="Y14" s="304"/>
+      <c r="Z14" s="305"/>
     </row>
     <row r="15" spans="2:38" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B15" s="329">
+      <c r="B15" s="291">
         <v>0</v>
       </c>
-      <c r="C15" s="330"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="290">
+      <c r="C15" s="292"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="288">
         <v>0</v>
       </c>
-      <c r="F15" s="291"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="290">
+      <c r="F15" s="289"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="288">
         <v>0</v>
       </c>
-      <c r="I15" s="291"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="290">
+      <c r="I15" s="289"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="288">
         <v>0</v>
       </c>
-      <c r="L15" s="291"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="290">
+      <c r="L15" s="289"/>
+      <c r="M15" s="290"/>
+      <c r="N15" s="288">
         <v>0</v>
       </c>
-      <c r="O15" s="291"/>
-      <c r="P15" s="292"/>
-      <c r="Q15" s="293">
+      <c r="O15" s="289"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="325">
         <f>AVERAGE(E15:P15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="294"/>
-      <c r="S15" s="295"/>
-      <c r="T15" s="342">
-        <f>STDEV(E15:P15)/SQRT(4)</f>
+      <c r="R15" s="326"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="276">
+        <f>_xlfn.STDEV.S(E15:P15)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="343"/>
-      <c r="V15" s="343"/>
-      <c r="W15" s="344"/>
-      <c r="X15" s="345">
+      <c r="U15" s="277"/>
+      <c r="V15" s="277"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="279">
         <f>Q15-B15</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="346"/>
-      <c r="Z15" s="347"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="281"/>
     </row>
     <row r="16" spans="2:38" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B16" s="323">
+      <c r="B16" s="294">
         <v>1</v>
       </c>
-      <c r="C16" s="324"/>
-      <c r="D16" s="325"/>
-      <c r="E16" s="275">
+      <c r="C16" s="295"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="282">
         <v>1</v>
       </c>
-      <c r="F16" s="276"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="275">
+      <c r="F16" s="283"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="282">
         <v>1</v>
       </c>
-      <c r="I16" s="276"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="275">
+      <c r="I16" s="283"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="282">
         <v>1</v>
       </c>
-      <c r="L16" s="276"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="275">
+      <c r="L16" s="283"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="282">
         <v>1</v>
       </c>
-      <c r="O16" s="276"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="283">
+      <c r="O16" s="283"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="270">
         <f t="shared" ref="Q16:Q32" si="0">AVERAGE(E16:P16)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="284"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="296">
-        <f t="shared" ref="T16:T33" si="1">STDEV(E16:P16)/SQRT(4)</f>
+      <c r="R16" s="271"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="276">
+        <f t="shared" ref="T16:T33" si="1">_xlfn.STDEV.S(E16:P16)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="297"/>
-      <c r="V16" s="297"/>
-      <c r="W16" s="298"/>
-      <c r="X16" s="286">
+      <c r="U16" s="277"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="262">
         <f t="shared" ref="X16:X33" si="2">Q16-B16</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="287"/>
-      <c r="Z16" s="288"/>
+      <c r="Y16" s="263"/>
+      <c r="Z16" s="264"/>
     </row>
     <row r="17" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B17" s="323">
+      <c r="B17" s="294">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C17" s="324"/>
-      <c r="D17" s="325"/>
-      <c r="E17" s="275">
+      <c r="C17" s="295"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="282">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F17" s="276"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="275">
+      <c r="F17" s="283"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="282">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I17" s="276"/>
-      <c r="J17" s="277"/>
-      <c r="K17" s="275">
+      <c r="I17" s="283"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="282">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L17" s="276"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="275">
+      <c r="L17" s="283"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="282">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O17" s="276"/>
-      <c r="P17" s="277"/>
-      <c r="Q17" s="283">
+      <c r="O17" s="283"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="270">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R17" s="284"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="296">
+      <c r="R17" s="271"/>
+      <c r="S17" s="272"/>
+      <c r="T17" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="297"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="298"/>
-      <c r="X17" s="286">
+      <c r="U17" s="277"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="278"/>
+      <c r="X17" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="287"/>
-      <c r="Z17" s="288"/>
+      <c r="Y17" s="263"/>
+      <c r="Z17" s="264"/>
     </row>
     <row r="18" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B18" s="323">
+      <c r="B18" s="294">
         <v>1.2</v>
       </c>
-      <c r="C18" s="324"/>
-      <c r="D18" s="325"/>
-      <c r="E18" s="275">
+      <c r="C18" s="295"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="282">
         <v>1.2</v>
       </c>
-      <c r="F18" s="276"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="275">
+      <c r="F18" s="283"/>
+      <c r="G18" s="284"/>
+      <c r="H18" s="282">
         <v>1.2</v>
       </c>
-      <c r="I18" s="276"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="275">
+      <c r="I18" s="283"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="282">
         <v>1.2</v>
       </c>
-      <c r="L18" s="276"/>
-      <c r="M18" s="277"/>
-      <c r="N18" s="275">
+      <c r="L18" s="283"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="282">
         <v>1.2</v>
       </c>
-      <c r="O18" s="276"/>
-      <c r="P18" s="277"/>
-      <c r="Q18" s="283">
+      <c r="O18" s="283"/>
+      <c r="P18" s="284"/>
+      <c r="Q18" s="270">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="R18" s="284"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="296">
+      <c r="R18" s="271"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="297"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="286">
+      <c r="U18" s="277"/>
+      <c r="V18" s="277"/>
+      <c r="W18" s="278"/>
+      <c r="X18" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="287"/>
-      <c r="Z18" s="288"/>
+      <c r="Y18" s="263"/>
+      <c r="Z18" s="264"/>
     </row>
     <row r="19" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B19" s="323">
+      <c r="B19" s="294">
         <v>1.3</v>
       </c>
-      <c r="C19" s="324"/>
-      <c r="D19" s="325"/>
-      <c r="E19" s="275">
+      <c r="C19" s="295"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="282">
         <v>1.3</v>
       </c>
-      <c r="F19" s="276"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="275">
+      <c r="F19" s="283"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="282">
         <v>1.3</v>
       </c>
-      <c r="I19" s="276"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="275">
+      <c r="I19" s="283"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="282">
         <v>1.3</v>
       </c>
-      <c r="L19" s="276"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="275">
+      <c r="L19" s="283"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="282">
         <v>1.3</v>
       </c>
-      <c r="O19" s="276"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="283">
+      <c r="O19" s="283"/>
+      <c r="P19" s="284"/>
+      <c r="Q19" s="270">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="R19" s="284"/>
-      <c r="S19" s="285"/>
-      <c r="T19" s="296">
+      <c r="R19" s="271"/>
+      <c r="S19" s="272"/>
+      <c r="T19" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="297"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="298"/>
-      <c r="X19" s="286">
+      <c r="U19" s="277"/>
+      <c r="V19" s="277"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="287"/>
-      <c r="Z19" s="288"/>
+      <c r="Y19" s="263"/>
+      <c r="Z19" s="264"/>
     </row>
     <row r="20" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B20" s="323">
+      <c r="B20" s="294">
         <v>1.4</v>
       </c>
-      <c r="C20" s="324"/>
-      <c r="D20" s="325"/>
-      <c r="E20" s="275">
+      <c r="C20" s="295"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="282">
         <v>1.4</v>
       </c>
-      <c r="F20" s="276"/>
-      <c r="G20" s="277"/>
-      <c r="H20" s="275">
+      <c r="F20" s="283"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="282">
         <v>1.4</v>
       </c>
-      <c r="I20" s="276"/>
-      <c r="J20" s="277"/>
-      <c r="K20" s="275">
+      <c r="I20" s="283"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="282">
         <v>1.4</v>
       </c>
-      <c r="L20" s="276"/>
-      <c r="M20" s="277"/>
-      <c r="N20" s="275">
+      <c r="L20" s="283"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="282">
         <v>1.4</v>
       </c>
-      <c r="O20" s="276"/>
-      <c r="P20" s="277"/>
-      <c r="Q20" s="283">
+      <c r="O20" s="283"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="270">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="R20" s="284"/>
-      <c r="S20" s="285"/>
-      <c r="T20" s="296">
+      <c r="R20" s="271"/>
+      <c r="S20" s="272"/>
+      <c r="T20" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="297"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="286">
+      <c r="U20" s="277"/>
+      <c r="V20" s="277"/>
+      <c r="W20" s="278"/>
+      <c r="X20" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="287"/>
-      <c r="Z20" s="288"/>
+      <c r="Y20" s="263"/>
+      <c r="Z20" s="264"/>
     </row>
     <row r="21" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B21" s="323">
+      <c r="B21" s="294">
         <v>1.5</v>
       </c>
-      <c r="C21" s="324"/>
-      <c r="D21" s="325"/>
-      <c r="E21" s="275">
+      <c r="C21" s="295"/>
+      <c r="D21" s="296"/>
+      <c r="E21" s="282">
         <v>1.5</v>
       </c>
-      <c r="F21" s="276"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="275">
+      <c r="F21" s="283"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="282">
         <v>1.5</v>
       </c>
-      <c r="I21" s="276"/>
-      <c r="J21" s="277"/>
-      <c r="K21" s="275">
+      <c r="I21" s="283"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="282">
         <v>1.5</v>
       </c>
-      <c r="L21" s="276"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="275">
+      <c r="L21" s="283"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="282">
         <v>1.5</v>
       </c>
-      <c r="O21" s="276"/>
-      <c r="P21" s="277"/>
-      <c r="Q21" s="283">
+      <c r="O21" s="283"/>
+      <c r="P21" s="284"/>
+      <c r="Q21" s="270">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="R21" s="284"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="296">
+      <c r="R21" s="271"/>
+      <c r="S21" s="272"/>
+      <c r="T21" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="297"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="298"/>
-      <c r="X21" s="286">
+      <c r="U21" s="277"/>
+      <c r="V21" s="277"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="287"/>
-      <c r="Z21" s="288"/>
+      <c r="Y21" s="263"/>
+      <c r="Z21" s="264"/>
     </row>
     <row r="22" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B22" s="323">
+      <c r="B22" s="294">
         <v>2</v>
       </c>
-      <c r="C22" s="324"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="275">
+      <c r="C22" s="295"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="282">
         <v>2</v>
       </c>
-      <c r="F22" s="276"/>
-      <c r="G22" s="277"/>
-      <c r="H22" s="275">
+      <c r="F22" s="283"/>
+      <c r="G22" s="284"/>
+      <c r="H22" s="282">
         <v>2</v>
       </c>
-      <c r="I22" s="276"/>
-      <c r="J22" s="277"/>
-      <c r="K22" s="275">
+      <c r="I22" s="283"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="282">
         <v>2</v>
       </c>
-      <c r="L22" s="276"/>
-      <c r="M22" s="277"/>
-      <c r="N22" s="275">
+      <c r="L22" s="283"/>
+      <c r="M22" s="284"/>
+      <c r="N22" s="282">
         <v>2</v>
       </c>
-      <c r="O22" s="276"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="283">
+      <c r="O22" s="283"/>
+      <c r="P22" s="284"/>
+      <c r="Q22" s="270">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R22" s="284"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="296">
+      <c r="R22" s="271"/>
+      <c r="S22" s="272"/>
+      <c r="T22" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="297"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="298"/>
-      <c r="X22" s="286">
+      <c r="U22" s="277"/>
+      <c r="V22" s="277"/>
+      <c r="W22" s="278"/>
+      <c r="X22" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="287"/>
-      <c r="Z22" s="288"/>
+      <c r="Y22" s="263"/>
+      <c r="Z22" s="264"/>
     </row>
     <row r="23" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B23" s="323">
+      <c r="B23" s="294">
         <v>3</v>
       </c>
-      <c r="C23" s="324"/>
-      <c r="D23" s="325"/>
-      <c r="E23" s="275">
+      <c r="C23" s="295"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="282">
         <v>3</v>
       </c>
-      <c r="F23" s="276"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="275">
+      <c r="F23" s="283"/>
+      <c r="G23" s="284"/>
+      <c r="H23" s="282">
         <v>3</v>
       </c>
-      <c r="I23" s="276"/>
-      <c r="J23" s="277"/>
-      <c r="K23" s="275">
+      <c r="I23" s="283"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="282">
         <v>3</v>
       </c>
-      <c r="L23" s="276"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="275">
+      <c r="L23" s="283"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="282">
         <v>3</v>
       </c>
-      <c r="O23" s="276"/>
-      <c r="P23" s="277"/>
-      <c r="Q23" s="283">
+      <c r="O23" s="283"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="270">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R23" s="284"/>
-      <c r="S23" s="285"/>
-      <c r="T23" s="296">
+      <c r="R23" s="271"/>
+      <c r="S23" s="272"/>
+      <c r="T23" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U23" s="297"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="298"/>
-      <c r="X23" s="286">
+      <c r="U23" s="277"/>
+      <c r="V23" s="277"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="287"/>
-      <c r="Z23" s="288"/>
+      <c r="Y23" s="263"/>
+      <c r="Z23" s="264"/>
     </row>
     <row r="24" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B24" s="323">
+      <c r="B24" s="294">
         <v>4</v>
       </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="325"/>
-      <c r="E24" s="275">
+      <c r="C24" s="295"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="282">
         <v>4</v>
       </c>
-      <c r="F24" s="276"/>
-      <c r="G24" s="277"/>
-      <c r="H24" s="275">
+      <c r="F24" s="283"/>
+      <c r="G24" s="284"/>
+      <c r="H24" s="282">
         <v>4</v>
       </c>
-      <c r="I24" s="276"/>
-      <c r="J24" s="277"/>
-      <c r="K24" s="275">
+      <c r="I24" s="283"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="282">
         <v>4</v>
       </c>
-      <c r="L24" s="276"/>
-      <c r="M24" s="277"/>
-      <c r="N24" s="275">
+      <c r="L24" s="283"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="282">
         <v>4</v>
       </c>
-      <c r="O24" s="276"/>
-      <c r="P24" s="277"/>
-      <c r="Q24" s="283">
+      <c r="O24" s="283"/>
+      <c r="P24" s="284"/>
+      <c r="Q24" s="270">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R24" s="284"/>
-      <c r="S24" s="285"/>
-      <c r="T24" s="296">
+      <c r="R24" s="271"/>
+      <c r="S24" s="272"/>
+      <c r="T24" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U24" s="297"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="298"/>
-      <c r="X24" s="286">
+      <c r="U24" s="277"/>
+      <c r="V24" s="277"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="287"/>
-      <c r="Z24" s="288"/>
+      <c r="Y24" s="263"/>
+      <c r="Z24" s="264"/>
     </row>
     <row r="25" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B25" s="323">
+      <c r="B25" s="294">
         <v>5</v>
       </c>
-      <c r="C25" s="324"/>
-      <c r="D25" s="325"/>
-      <c r="E25" s="275">
+      <c r="C25" s="295"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="282">
         <v>5</v>
       </c>
-      <c r="F25" s="276"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="275">
+      <c r="F25" s="283"/>
+      <c r="G25" s="284"/>
+      <c r="H25" s="282">
         <v>5</v>
       </c>
-      <c r="I25" s="276"/>
-      <c r="J25" s="277"/>
-      <c r="K25" s="275">
+      <c r="I25" s="283"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="282">
         <v>5</v>
       </c>
-      <c r="L25" s="276"/>
-      <c r="M25" s="277"/>
-      <c r="N25" s="275">
+      <c r="L25" s="283"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="282">
         <v>5</v>
       </c>
-      <c r="O25" s="276"/>
-      <c r="P25" s="277"/>
-      <c r="Q25" s="283">
+      <c r="O25" s="283"/>
+      <c r="P25" s="284"/>
+      <c r="Q25" s="270">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R25" s="284"/>
-      <c r="S25" s="285"/>
-      <c r="T25" s="296">
+      <c r="R25" s="271"/>
+      <c r="S25" s="272"/>
+      <c r="T25" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="297"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="298"/>
-      <c r="X25" s="286">
+      <c r="U25" s="277"/>
+      <c r="V25" s="277"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="287"/>
-      <c r="Z25" s="288"/>
+      <c r="Y25" s="263"/>
+      <c r="Z25" s="264"/>
     </row>
     <row r="26" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B26" s="323">
+      <c r="B26" s="294">
         <v>6</v>
       </c>
-      <c r="C26" s="324"/>
-      <c r="D26" s="325"/>
-      <c r="E26" s="275">
+      <c r="C26" s="295"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="282">
         <v>6</v>
       </c>
-      <c r="F26" s="276"/>
-      <c r="G26" s="277"/>
-      <c r="H26" s="275">
+      <c r="F26" s="283"/>
+      <c r="G26" s="284"/>
+      <c r="H26" s="282">
         <v>6</v>
       </c>
-      <c r="I26" s="276"/>
-      <c r="J26" s="277"/>
-      <c r="K26" s="275">
+      <c r="I26" s="283"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="282">
         <v>6</v>
       </c>
-      <c r="L26" s="276"/>
-      <c r="M26" s="277"/>
-      <c r="N26" s="275">
+      <c r="L26" s="283"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="282">
         <v>6</v>
       </c>
-      <c r="O26" s="276"/>
-      <c r="P26" s="277"/>
-      <c r="Q26" s="283">
+      <c r="O26" s="283"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="270">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R26" s="284"/>
-      <c r="S26" s="285"/>
-      <c r="T26" s="296">
+      <c r="R26" s="271"/>
+      <c r="S26" s="272"/>
+      <c r="T26" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="298"/>
-      <c r="X26" s="286">
+      <c r="U26" s="277"/>
+      <c r="V26" s="277"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="287"/>
-      <c r="Z26" s="288"/>
+      <c r="Y26" s="263"/>
+      <c r="Z26" s="264"/>
     </row>
     <row r="27" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B27" s="323">
+      <c r="B27" s="294">
         <v>7</v>
       </c>
-      <c r="C27" s="324"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="275">
+      <c r="C27" s="295"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="282">
         <f>B27</f>
         <v>7</v>
       </c>
-      <c r="F27" s="276"/>
-      <c r="G27" s="277"/>
-      <c r="H27" s="275">
+      <c r="F27" s="283"/>
+      <c r="G27" s="284"/>
+      <c r="H27" s="282">
         <f>E27</f>
         <v>7</v>
       </c>
-      <c r="I27" s="276"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="275">
+      <c r="I27" s="283"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="282">
         <f>H27</f>
         <v>7</v>
       </c>
-      <c r="L27" s="276"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="275">
+      <c r="L27" s="283"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="282">
         <f>K27</f>
         <v>7</v>
       </c>
-      <c r="O27" s="276"/>
-      <c r="P27" s="277"/>
-      <c r="Q27" s="283">
+      <c r="O27" s="283"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="270">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R27" s="284"/>
-      <c r="S27" s="285"/>
-      <c r="T27" s="296">
+      <c r="R27" s="271"/>
+      <c r="S27" s="272"/>
+      <c r="T27" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="297"/>
-      <c r="V27" s="297"/>
-      <c r="W27" s="298"/>
-      <c r="X27" s="286">
+      <c r="U27" s="277"/>
+      <c r="V27" s="277"/>
+      <c r="W27" s="278"/>
+      <c r="X27" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="287"/>
-      <c r="Z27" s="288"/>
+      <c r="Y27" s="263"/>
+      <c r="Z27" s="264"/>
     </row>
     <row r="28" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B28" s="323">
+      <c r="B28" s="294">
         <v>8</v>
       </c>
-      <c r="C28" s="324"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="275">
+      <c r="C28" s="295"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="282">
         <v>8</v>
       </c>
-      <c r="F28" s="276"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="275">
+      <c r="F28" s="283"/>
+      <c r="G28" s="284"/>
+      <c r="H28" s="282">
         <v>8</v>
       </c>
-      <c r="I28" s="276"/>
-      <c r="J28" s="277"/>
-      <c r="K28" s="275">
+      <c r="I28" s="283"/>
+      <c r="J28" s="284"/>
+      <c r="K28" s="282">
         <v>8</v>
       </c>
-      <c r="L28" s="276"/>
-      <c r="M28" s="277"/>
-      <c r="N28" s="275">
+      <c r="L28" s="283"/>
+      <c r="M28" s="284"/>
+      <c r="N28" s="282">
         <v>8</v>
       </c>
-      <c r="O28" s="276"/>
-      <c r="P28" s="277"/>
-      <c r="Q28" s="283">
+      <c r="O28" s="283"/>
+      <c r="P28" s="284"/>
+      <c r="Q28" s="270">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R28" s="284"/>
-      <c r="S28" s="285"/>
-      <c r="T28" s="296">
+      <c r="R28" s="271"/>
+      <c r="S28" s="272"/>
+      <c r="T28" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="297"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="298"/>
-      <c r="X28" s="286">
+      <c r="U28" s="277"/>
+      <c r="V28" s="277"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="287"/>
-      <c r="Z28" s="288"/>
+      <c r="Y28" s="263"/>
+      <c r="Z28" s="264"/>
     </row>
     <row r="29" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B29" s="323">
+      <c r="B29" s="294">
         <v>9</v>
       </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="325"/>
-      <c r="E29" s="275">
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="282">
         <v>9</v>
       </c>
-      <c r="F29" s="276"/>
-      <c r="G29" s="277"/>
-      <c r="H29" s="275">
+      <c r="F29" s="283"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="282">
         <v>9</v>
       </c>
-      <c r="I29" s="276"/>
-      <c r="J29" s="277"/>
-      <c r="K29" s="275">
+      <c r="I29" s="283"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="282">
         <v>9</v>
       </c>
-      <c r="L29" s="276"/>
-      <c r="M29" s="277"/>
-      <c r="N29" s="275">
+      <c r="L29" s="283"/>
+      <c r="M29" s="284"/>
+      <c r="N29" s="282">
         <v>9</v>
       </c>
-      <c r="O29" s="276"/>
-      <c r="P29" s="277"/>
-      <c r="Q29" s="283">
+      <c r="O29" s="283"/>
+      <c r="P29" s="284"/>
+      <c r="Q29" s="270">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R29" s="284"/>
-      <c r="S29" s="285"/>
-      <c r="T29" s="296">
+      <c r="R29" s="271"/>
+      <c r="S29" s="272"/>
+      <c r="T29" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="297"/>
-      <c r="V29" s="297"/>
-      <c r="W29" s="298"/>
-      <c r="X29" s="286">
+      <c r="U29" s="277"/>
+      <c r="V29" s="277"/>
+      <c r="W29" s="278"/>
+      <c r="X29" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="287"/>
-      <c r="Z29" s="288"/>
+      <c r="Y29" s="263"/>
+      <c r="Z29" s="264"/>
     </row>
     <row r="30" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B30" s="323">
+      <c r="B30" s="294">
         <v>10</v>
       </c>
-      <c r="C30" s="324"/>
-      <c r="D30" s="325"/>
-      <c r="E30" s="275">
+      <c r="C30" s="295"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="282">
         <v>10</v>
       </c>
-      <c r="F30" s="276"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="275">
+      <c r="F30" s="283"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="282">
         <v>10</v>
       </c>
-      <c r="I30" s="276"/>
-      <c r="J30" s="277"/>
-      <c r="K30" s="275">
+      <c r="I30" s="283"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="282">
         <v>10</v>
       </c>
-      <c r="L30" s="276"/>
-      <c r="M30" s="277"/>
-      <c r="N30" s="275">
+      <c r="L30" s="283"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="282">
         <v>10</v>
       </c>
-      <c r="O30" s="276"/>
-      <c r="P30" s="277"/>
-      <c r="Q30" s="283">
+      <c r="O30" s="283"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="270">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R30" s="284"/>
-      <c r="S30" s="285"/>
-      <c r="T30" s="296">
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
+      <c r="T30" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="297"/>
-      <c r="V30" s="297"/>
-      <c r="W30" s="298"/>
-      <c r="X30" s="286">
+      <c r="U30" s="277"/>
+      <c r="V30" s="277"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="287"/>
-      <c r="Z30" s="288"/>
+      <c r="Y30" s="263"/>
+      <c r="Z30" s="264"/>
     </row>
     <row r="31" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B31" s="323">
+      <c r="B31" s="294">
         <v>11</v>
       </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="325"/>
-      <c r="E31" s="275">
+      <c r="C31" s="295"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="282">
         <v>11</v>
       </c>
-      <c r="F31" s="276"/>
-      <c r="G31" s="277"/>
-      <c r="H31" s="275">
+      <c r="F31" s="283"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="282">
         <v>11</v>
       </c>
-      <c r="I31" s="276"/>
-      <c r="J31" s="277"/>
-      <c r="K31" s="275">
+      <c r="I31" s="283"/>
+      <c r="J31" s="284"/>
+      <c r="K31" s="282">
         <v>11</v>
       </c>
-      <c r="L31" s="276"/>
-      <c r="M31" s="277"/>
-      <c r="N31" s="275">
+      <c r="L31" s="283"/>
+      <c r="M31" s="284"/>
+      <c r="N31" s="282">
         <v>11</v>
       </c>
-      <c r="O31" s="276"/>
-      <c r="P31" s="277"/>
-      <c r="Q31" s="283">
+      <c r="O31" s="283"/>
+      <c r="P31" s="284"/>
+      <c r="Q31" s="270">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="R31" s="284"/>
-      <c r="S31" s="285"/>
-      <c r="T31" s="296">
+      <c r="R31" s="271"/>
+      <c r="S31" s="272"/>
+      <c r="T31" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="297"/>
-      <c r="V31" s="297"/>
-      <c r="W31" s="298"/>
-      <c r="X31" s="286">
+      <c r="U31" s="277"/>
+      <c r="V31" s="277"/>
+      <c r="W31" s="278"/>
+      <c r="X31" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="287"/>
-      <c r="Z31" s="288"/>
+      <c r="Y31" s="263"/>
+      <c r="Z31" s="264"/>
     </row>
     <row r="32" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B32" s="323">
+      <c r="B32" s="294">
         <v>12</v>
       </c>
-      <c r="C32" s="324"/>
-      <c r="D32" s="325"/>
-      <c r="E32" s="275">
+      <c r="C32" s="295"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="282">
         <v>12</v>
       </c>
-      <c r="F32" s="276"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="275">
+      <c r="F32" s="283"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="282">
         <v>12</v>
       </c>
-      <c r="I32" s="276"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="275">
+      <c r="I32" s="283"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="282">
         <v>12</v>
       </c>
-      <c r="L32" s="276"/>
-      <c r="M32" s="277"/>
-      <c r="N32" s="275">
+      <c r="L32" s="283"/>
+      <c r="M32" s="284"/>
+      <c r="N32" s="282">
         <v>12</v>
       </c>
-      <c r="O32" s="276"/>
-      <c r="P32" s="277"/>
-      <c r="Q32" s="283">
+      <c r="O32" s="283"/>
+      <c r="P32" s="284"/>
+      <c r="Q32" s="270">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R32" s="284"/>
-      <c r="S32" s="285"/>
-      <c r="T32" s="296">
+      <c r="R32" s="271"/>
+      <c r="S32" s="272"/>
+      <c r="T32" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="297"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="298"/>
-      <c r="X32" s="286">
+      <c r="U32" s="277"/>
+      <c r="V32" s="277"/>
+      <c r="W32" s="278"/>
+      <c r="X32" s="262">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="287"/>
-      <c r="Z32" s="288"/>
+      <c r="Y32" s="263"/>
+      <c r="Z32" s="264"/>
     </row>
     <row r="33" spans="2:26" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B33" s="326">
+      <c r="B33" s="297">
         <v>13</v>
       </c>
-      <c r="C33" s="327"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="278">
+      <c r="C33" s="298"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="285">
         <v>13</v>
       </c>
-      <c r="F33" s="279"/>
-      <c r="G33" s="280"/>
-      <c r="H33" s="278">
+      <c r="F33" s="286"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="285">
         <v>13</v>
       </c>
-      <c r="I33" s="279"/>
-      <c r="J33" s="280"/>
-      <c r="K33" s="278">
+      <c r="I33" s="286"/>
+      <c r="J33" s="287"/>
+      <c r="K33" s="285">
         <v>13</v>
       </c>
-      <c r="L33" s="279"/>
-      <c r="M33" s="280"/>
-      <c r="N33" s="278">
+      <c r="L33" s="286"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="285">
         <v>13</v>
       </c>
-      <c r="O33" s="279"/>
-      <c r="P33" s="280"/>
-      <c r="Q33" s="339">
+      <c r="O33" s="286"/>
+      <c r="P33" s="287"/>
+      <c r="Q33" s="273">
         <f>AVERAGE(E33:P33)</f>
         <v>13</v>
       </c>
-      <c r="R33" s="340"/>
-      <c r="S33" s="341"/>
-      <c r="T33" s="332">
+      <c r="R33" s="274"/>
+      <c r="S33" s="275"/>
+      <c r="T33" s="276">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U33" s="333"/>
-      <c r="V33" s="333"/>
-      <c r="W33" s="334"/>
-      <c r="X33" s="335">
+      <c r="U33" s="277"/>
+      <c r="V33" s="277"/>
+      <c r="W33" s="278"/>
+      <c r="X33" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="336"/>
-      <c r="Z33" s="337"/>
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="267"/>
     </row>
     <row r="34" spans="2:26" s="139" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="35" spans="2:26" s="139" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -32726,6 +32708,166 @@
     </row>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="G5:AC5"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="U11:AC11"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q13:S14"/>
+    <mergeCell ref="T13:W14"/>
+    <mergeCell ref="X13:Z14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="X30:Z30"/>
     <mergeCell ref="X31:Z31"/>
     <mergeCell ref="X32:Z32"/>
@@ -32750,166 +32892,6 @@
     <mergeCell ref="T16:W16"/>
     <mergeCell ref="T17:W17"/>
     <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q13:S14"/>
-    <mergeCell ref="T13:W14"/>
-    <mergeCell ref="X13:Z14"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="U11:AC11"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="G5:AC5"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B1:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.5" header="0.3" footer="0.05"/>
   <pageSetup scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -33545,38 +33527,38 @@
     <row r="1" spans="1:30" ht="13.5" customHeight="1"/>
     <row r="2" spans="1:30" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:30" ht="35.450000000000003" customHeight="1">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="348"/>
-      <c r="L3" s="348"/>
-      <c r="M3" s="348"/>
-      <c r="N3" s="348"/>
-      <c r="O3" s="348"/>
-      <c r="P3" s="348"/>
-      <c r="Q3" s="348"/>
-      <c r="R3" s="348"/>
-      <c r="S3" s="348"/>
-      <c r="T3" s="348"/>
-      <c r="U3" s="348"/>
-      <c r="V3" s="348"/>
-      <c r="W3" s="348"/>
-      <c r="X3" s="348"/>
-      <c r="Y3" s="348"/>
-      <c r="Z3" s="348"/>
-      <c r="AA3" s="348"/>
-      <c r="AB3" s="348"/>
-      <c r="AC3" s="348"/>
-      <c r="AD3" s="348"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
+      <c r="N3" s="342"/>
+      <c r="O3" s="342"/>
+      <c r="P3" s="342"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="342"/>
+      <c r="AA3" s="342"/>
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
     </row>
     <row r="4" spans="1:30" s="68" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="67"/>
@@ -33861,14 +33843,14 @@
       <c r="I13" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="350" t="str">
+      <c r="J13" s="344" t="str">
         <f>'Data Record'!U6</f>
         <v>N/A</v>
       </c>
-      <c r="K13" s="350"/>
-      <c r="L13" s="350"/>
-      <c r="M13" s="350"/>
-      <c r="N13" s="350"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="344"/>
+      <c r="M13" s="344"/>
+      <c r="N13" s="344"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="101"/>
       <c r="R13" s="101"/>
@@ -33892,14 +33874,14 @@
       <c r="I14" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="351" t="str">
+      <c r="J14" s="345" t="str">
         <f>'Data Record'!E7</f>
         <v>N/A</v>
       </c>
-      <c r="K14" s="351"/>
-      <c r="L14" s="351"/>
-      <c r="M14" s="351"/>
-      <c r="N14" s="351"/>
+      <c r="K14" s="345"/>
+      <c r="L14" s="345"/>
+      <c r="M14" s="345"/>
+      <c r="N14" s="345"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="101"/>
       <c r="R14" s="101"/>
@@ -33924,14 +33906,14 @@
       <c r="I15" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="352">
+      <c r="J15" s="346">
         <f>'Data Record'!P7</f>
         <v>123</v>
       </c>
-      <c r="K15" s="352"/>
-      <c r="L15" s="352"/>
-      <c r="M15" s="352"/>
-      <c r="N15" s="352"/>
+      <c r="K15" s="346"/>
+      <c r="L15" s="346"/>
+      <c r="M15" s="346"/>
+      <c r="N15" s="346"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="101"/>
@@ -33955,14 +33937,14 @@
       <c r="I16" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="353">
+      <c r="J16" s="347">
         <f>'Data Record'!Z7</f>
         <v>456</v>
       </c>
-      <c r="K16" s="353"/>
-      <c r="L16" s="353"/>
-      <c r="M16" s="353"/>
-      <c r="N16" s="353"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
+      <c r="M16" s="347"/>
+      <c r="N16" s="347"/>
       <c r="P16" s="77"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="101"/>
@@ -34042,13 +34024,13 @@
       <c r="Z19" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="356">
+      <c r="AA19" s="350">
         <f>'Data Record'!Q2</f>
         <v>42371</v>
       </c>
-      <c r="AB19" s="356"/>
-      <c r="AC19" s="356"/>
-      <c r="AD19" s="356"/>
+      <c r="AB19" s="350"/>
+      <c r="AC19" s="350"/>
+      <c r="AD19" s="350"/>
     </row>
     <row r="20" spans="1:36" s="68" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="69"/>
@@ -34076,13 +34058,13 @@
       <c r="Z20" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="AA20" s="356">
+      <c r="AA20" s="350">
         <f>'Data Record'!Z2</f>
         <v>42372</v>
       </c>
-      <c r="AB20" s="356"/>
-      <c r="AC20" s="356"/>
-      <c r="AD20" s="356"/>
+      <c r="AB20" s="350"/>
+      <c r="AC20" s="350"/>
+      <c r="AD20" s="350"/>
     </row>
     <row r="21" spans="1:36" s="68" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="69"/>
@@ -34110,13 +34092,13 @@
       <c r="Z21" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="AA21" s="357">
+      <c r="AA21" s="351">
         <f>AA20+365</f>
         <v>42737</v>
       </c>
-      <c r="AB21" s="357"/>
-      <c r="AC21" s="357"/>
-      <c r="AD21" s="357"/>
+      <c r="AB21" s="351"/>
+      <c r="AC21" s="351"/>
+      <c r="AD21" s="351"/>
     </row>
     <row r="22" spans="1:36" s="68" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="69"/>
@@ -34455,12 +34437,12 @@
       <c r="G35" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="358">
+      <c r="H35" s="352">
         <f>AA20+1</f>
         <v>42373</v>
       </c>
-      <c r="I35" s="358"/>
-      <c r="J35" s="358"/>
+      <c r="I35" s="352"/>
+      <c r="J35" s="352"/>
       <c r="K35" s="226"/>
       <c r="L35" s="210"/>
       <c r="M35" s="210"/>
@@ -34548,17 +34530,17 @@
         <v>3</v>
       </c>
       <c r="R37" s="210"/>
-      <c r="V37" s="354" t="str">
+      <c r="V37" s="348" t="str">
         <f>IF(Q37=1,"( Mr.Sombut Srikampa )",IF(Q37=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="W37" s="354"/>
-      <c r="X37" s="354"/>
-      <c r="Y37" s="354"/>
-      <c r="Z37" s="354"/>
-      <c r="AA37" s="354"/>
-      <c r="AB37" s="354"/>
-      <c r="AC37" s="354"/>
+      <c r="W37" s="348"/>
+      <c r="X37" s="348"/>
+      <c r="Y37" s="348"/>
+      <c r="Z37" s="348"/>
+      <c r="AA37" s="348"/>
+      <c r="AB37" s="348"/>
+      <c r="AC37" s="348"/>
       <c r="AE37" s="225"/>
       <c r="AF37" s="180"/>
       <c r="AG37" s="157"/>
@@ -34585,16 +34567,16 @@
       <c r="P38" s="210"/>
       <c r="Q38" s="210"/>
       <c r="R38" s="210"/>
-      <c r="V38" s="355" t="s">
+      <c r="V38" s="349" t="s">
         <v>51</v>
       </c>
-      <c r="W38" s="355"/>
-      <c r="X38" s="355"/>
-      <c r="Y38" s="355"/>
-      <c r="Z38" s="355"/>
-      <c r="AA38" s="355"/>
-      <c r="AB38" s="355"/>
-      <c r="AC38" s="355"/>
+      <c r="W38" s="349"/>
+      <c r="X38" s="349"/>
+      <c r="Y38" s="349"/>
+      <c r="Z38" s="349"/>
+      <c r="AA38" s="349"/>
+      <c r="AB38" s="349"/>
+      <c r="AC38" s="349"/>
       <c r="AD38" s="234"/>
       <c r="AE38" s="235"/>
       <c r="AF38" s="235"/>
@@ -34626,28 +34608,28 @@
       <c r="AA39" s="125"/>
     </row>
     <row r="40" spans="1:36" s="68" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="349"/>
-      <c r="B40" s="349"/>
-      <c r="C40" s="349"/>
-      <c r="D40" s="349"/>
-      <c r="E40" s="349"/>
-      <c r="F40" s="349"/>
-      <c r="G40" s="349"/>
-      <c r="H40" s="349"/>
-      <c r="I40" s="349"/>
-      <c r="J40" s="349"/>
-      <c r="K40" s="349"/>
-      <c r="L40" s="349"/>
-      <c r="M40" s="349"/>
-      <c r="N40" s="349"/>
-      <c r="O40" s="349"/>
-      <c r="P40" s="349"/>
-      <c r="Q40" s="349"/>
-      <c r="R40" s="349"/>
-      <c r="S40" s="349"/>
-      <c r="T40" s="349"/>
-      <c r="U40" s="349"/>
-      <c r="V40" s="349"/>
+      <c r="A40" s="343"/>
+      <c r="B40" s="343"/>
+      <c r="C40" s="343"/>
+      <c r="D40" s="343"/>
+      <c r="E40" s="343"/>
+      <c r="F40" s="343"/>
+      <c r="G40" s="343"/>
+      <c r="H40" s="343"/>
+      <c r="I40" s="343"/>
+      <c r="J40" s="343"/>
+      <c r="K40" s="343"/>
+      <c r="L40" s="343"/>
+      <c r="M40" s="343"/>
+      <c r="N40" s="343"/>
+      <c r="O40" s="343"/>
+      <c r="P40" s="343"/>
+      <c r="Q40" s="343"/>
+      <c r="R40" s="343"/>
+      <c r="S40" s="343"/>
+      <c r="T40" s="343"/>
+      <c r="U40" s="343"/>
+      <c r="V40" s="343"/>
       <c r="W40" s="134"/>
     </row>
     <row r="41" spans="1:36" ht="18.75" customHeight="1">
@@ -34787,30 +34769,30 @@
       <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="353" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="365"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365"/>
-      <c r="H3" s="365"/>
-      <c r="I3" s="365"/>
-      <c r="J3" s="365"/>
-      <c r="K3" s="365"/>
-      <c r="L3" s="365"/>
-      <c r="M3" s="365"/>
-      <c r="N3" s="365"/>
-      <c r="O3" s="365"/>
-      <c r="P3" s="365"/>
-      <c r="Q3" s="365"/>
-      <c r="R3" s="365"/>
-      <c r="S3" s="365"/>
-      <c r="T3" s="365"/>
-      <c r="U3" s="365"/>
-      <c r="V3" s="365"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="353"/>
+      <c r="T3" s="353"/>
+      <c r="U3" s="353"/>
+      <c r="V3" s="353"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="67"/>
@@ -34861,11 +34843,11 @@
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="66"/>
-      <c r="S5" s="366" t="s">
+      <c r="S5" s="354" t="s">
         <v>106</v>
       </c>
-      <c r="T5" s="366"/>
-      <c r="U5" s="366"/>
+      <c r="T5" s="354"/>
+      <c r="U5" s="354"/>
       <c r="V5" s="68"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1">
@@ -34924,16 +34906,16 @@
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
-      <c r="H8" s="376" t="s">
+      <c r="H8" s="366" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="376"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="376"/>
-      <c r="L8" s="376"/>
-      <c r="M8" s="376"/>
-      <c r="N8" s="376"/>
-      <c r="O8" s="376"/>
+      <c r="I8" s="366"/>
+      <c r="J8" s="366"/>
+      <c r="K8" s="366"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="366"/>
       <c r="P8" s="85"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
@@ -34950,14 +34932,14 @@
       <c r="E9" s="72"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
-      <c r="H9" s="376"/>
-      <c r="I9" s="376"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="376"/>
-      <c r="L9" s="376"/>
-      <c r="M9" s="376"/>
-      <c r="N9" s="376"/>
-      <c r="O9" s="376"/>
+      <c r="H9" s="366"/>
+      <c r="I9" s="366"/>
+      <c r="J9" s="366"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="366"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="366"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="85"/>
@@ -34992,70 +34974,70 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1">
       <c r="A11" s="69"/>
-      <c r="B11" s="362" t="s">
+      <c r="B11" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="363"/>
-      <c r="F11" s="363"/>
-      <c r="G11" s="364"/>
-      <c r="H11" s="362" t="s">
+      <c r="C11" s="355"/>
+      <c r="D11" s="355"/>
+      <c r="E11" s="355"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="356"/>
+      <c r="H11" s="375" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="363"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="362" t="s">
+      <c r="I11" s="355"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="375" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="363"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="362" t="s">
+      <c r="L11" s="355"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="375" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="363"/>
-      <c r="P11" s="363"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="363" t="s">
+      <c r="O11" s="355"/>
+      <c r="P11" s="355"/>
+      <c r="Q11" s="356"/>
+      <c r="R11" s="355" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="363"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="364"/>
+      <c r="S11" s="355"/>
+      <c r="T11" s="355"/>
+      <c r="U11" s="356"/>
       <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1">
       <c r="A12" s="69"/>
-      <c r="B12" s="377" t="s">
+      <c r="B12" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="378"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="378"/>
-      <c r="H12" s="379" t="s">
+      <c r="C12" s="368"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="368"/>
+      <c r="F12" s="368"/>
+      <c r="G12" s="368"/>
+      <c r="H12" s="369" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
-      <c r="K12" s="379">
+      <c r="I12" s="370"/>
+      <c r="J12" s="371"/>
+      <c r="K12" s="369">
         <v>60711</v>
       </c>
-      <c r="L12" s="380"/>
-      <c r="M12" s="381"/>
-      <c r="N12" s="359" t="s">
+      <c r="L12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="360"/>
-      <c r="P12" s="360"/>
-      <c r="Q12" s="361"/>
-      <c r="R12" s="367">
+      <c r="O12" s="373"/>
+      <c r="P12" s="373"/>
+      <c r="Q12" s="374"/>
+      <c r="R12" s="357">
         <v>42336</v>
       </c>
-      <c r="S12" s="368"/>
-      <c r="T12" s="368"/>
-      <c r="U12" s="369"/>
+      <c r="S12" s="358"/>
+      <c r="T12" s="358"/>
+      <c r="U12" s="359"/>
       <c r="V12" s="103"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
@@ -35196,10 +35178,10 @@
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="100"/>
-      <c r="J18" s="372"/>
-      <c r="K18" s="373"/>
-      <c r="L18" s="373"/>
-      <c r="M18" s="373"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="363"/>
+      <c r="L18" s="363"/>
+      <c r="M18" s="363"/>
       <c r="N18" s="68"/>
       <c r="O18" s="101"/>
       <c r="P18" s="101"/>
@@ -35220,10 +35202,10 @@
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="100"/>
-      <c r="J19" s="372"/>
-      <c r="K19" s="373"/>
-      <c r="L19" s="373"/>
-      <c r="M19" s="373"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="363"/>
+      <c r="L19" s="363"/>
+      <c r="M19" s="363"/>
       <c r="N19" s="68"/>
       <c r="O19" s="101"/>
       <c r="P19" s="101"/>
@@ -35244,10 +35226,10 @@
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="100"/>
-      <c r="J20" s="373"/>
-      <c r="K20" s="373"/>
-      <c r="L20" s="373"/>
-      <c r="M20" s="373"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="363"/>
+      <c r="L20" s="363"/>
+      <c r="M20" s="363"/>
       <c r="N20" s="68"/>
       <c r="O20" s="101"/>
       <c r="P20" s="101"/>
@@ -35696,16 +35678,16 @@
       <c r="C39" s="96"/>
       <c r="D39" s="96"/>
       <c r="E39" s="96"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
-      <c r="I39" s="374"/>
+      <c r="F39" s="364"/>
+      <c r="G39" s="364"/>
+      <c r="H39" s="364"/>
+      <c r="I39" s="364"/>
       <c r="J39" s="131"/>
       <c r="K39" s="96"/>
-      <c r="L39" s="375"/>
-      <c r="M39" s="375"/>
-      <c r="N39" s="375"/>
-      <c r="O39" s="375"/>
+      <c r="L39" s="365"/>
+      <c r="M39" s="365"/>
+      <c r="N39" s="365"/>
+      <c r="O39" s="365"/>
       <c r="P39" s="76"/>
       <c r="Q39" s="76"/>
       <c r="R39" s="76"/>
@@ -35754,11 +35736,11 @@
       <c r="M41" s="88"/>
       <c r="N41" s="88"/>
       <c r="O41" s="88"/>
-      <c r="P41" s="370"/>
-      <c r="Q41" s="370"/>
-      <c r="R41" s="370"/>
-      <c r="S41" s="370"/>
-      <c r="T41" s="370"/>
+      <c r="P41" s="360"/>
+      <c r="Q41" s="360"/>
+      <c r="R41" s="360"/>
+      <c r="S41" s="360"/>
+      <c r="T41" s="360"/>
       <c r="U41" s="125"/>
       <c r="V41" s="125"/>
     </row>
@@ -35766,11 +35748,11 @@
       <c r="A42" s="69"/>
       <c r="B42" s="68"/>
       <c r="C42" s="68"/>
-      <c r="D42" s="371"/>
-      <c r="E42" s="371"/>
-      <c r="F42" s="371"/>
-      <c r="G42" s="371"/>
-      <c r="H42" s="371"/>
+      <c r="D42" s="361"/>
+      <c r="E42" s="361"/>
+      <c r="F42" s="361"/>
+      <c r="G42" s="361"/>
+      <c r="H42" s="361"/>
       <c r="I42" s="68"/>
       <c r="J42" s="68"/>
       <c r="K42" s="88"/>
@@ -35787,26 +35769,26 @@
       <c r="V42" s="125"/>
     </row>
     <row r="43" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="349"/>
-      <c r="B43" s="349"/>
-      <c r="C43" s="349"/>
-      <c r="D43" s="349"/>
-      <c r="E43" s="349"/>
-      <c r="F43" s="349"/>
-      <c r="G43" s="349"/>
-      <c r="H43" s="349"/>
-      <c r="I43" s="349"/>
-      <c r="J43" s="349"/>
-      <c r="K43" s="349"/>
-      <c r="L43" s="349"/>
-      <c r="M43" s="349"/>
-      <c r="N43" s="349"/>
-      <c r="O43" s="349"/>
-      <c r="P43" s="349"/>
-      <c r="Q43" s="349"/>
-      <c r="R43" s="349"/>
-      <c r="S43" s="349"/>
-      <c r="T43" s="349"/>
+      <c r="A43" s="343"/>
+      <c r="B43" s="343"/>
+      <c r="C43" s="343"/>
+      <c r="D43" s="343"/>
+      <c r="E43" s="343"/>
+      <c r="F43" s="343"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="343"/>
+      <c r="L43" s="343"/>
+      <c r="M43" s="343"/>
+      <c r="N43" s="343"/>
+      <c r="O43" s="343"/>
+      <c r="P43" s="343"/>
+      <c r="Q43" s="343"/>
+      <c r="R43" s="343"/>
+      <c r="S43" s="343"/>
+      <c r="T43" s="343"/>
       <c r="U43" s="134"/>
       <c r="V43" s="68"/>
     </row>
@@ -35874,6 +35856,11 @@
     <row r="105" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Q11"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="R11:U11"/>
@@ -35890,11 +35877,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35967,29 +35949,29 @@
       <c r="V2" s="135"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1">
-      <c r="B3" s="382" t="s">
+      <c r="B3" s="395" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="382"/>
-      <c r="P3" s="382"/>
-      <c r="Q3" s="382"/>
-      <c r="R3" s="382"/>
-      <c r="S3" s="382"/>
-      <c r="T3" s="382"/>
-      <c r="U3" s="382"/>
-      <c r="V3" s="382"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
+      <c r="Q3" s="395"/>
+      <c r="R3" s="395"/>
+      <c r="S3" s="395"/>
+      <c r="T3" s="395"/>
+      <c r="U3" s="395"/>
+      <c r="V3" s="395"/>
     </row>
     <row r="4" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="149"/>
@@ -36092,10 +36074,10 @@
       <c r="M7" s="150"/>
       <c r="N7" s="150"/>
       <c r="O7" s="142"/>
-      <c r="P7" s="383" t="s">
+      <c r="P7" s="396" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" s="383"/>
+      <c r="Q7" s="396"/>
       <c r="R7" s="261" t="s">
         <v>10</v>
       </c>
@@ -36111,27 +36093,27 @@
       <c r="C8" s="145"/>
       <c r="D8" s="145"/>
       <c r="E8" s="145"/>
-      <c r="F8" s="384" t="s">
+      <c r="F8" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="399"/>
-      <c r="H8" s="400"/>
-      <c r="I8" s="384" t="s">
+      <c r="G8" s="412"/>
+      <c r="H8" s="413"/>
+      <c r="I8" s="397" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="399"/>
-      <c r="K8" s="400"/>
-      <c r="L8" s="404" t="s">
+      <c r="J8" s="412"/>
+      <c r="K8" s="413"/>
+      <c r="L8" s="417" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="399"/>
-      <c r="N8" s="400"/>
-      <c r="O8" s="384" t="s">
+      <c r="M8" s="412"/>
+      <c r="N8" s="413"/>
+      <c r="O8" s="397" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="385"/>
-      <c r="Q8" s="385"/>
-      <c r="R8" s="386"/>
+      <c r="P8" s="398"/>
+      <c r="Q8" s="398"/>
+      <c r="R8" s="399"/>
       <c r="S8" s="145"/>
       <c r="T8" s="145"/>
       <c r="U8" s="151"/>
@@ -36144,19 +36126,19 @@
       <c r="C9" s="145"/>
       <c r="D9" s="145"/>
       <c r="E9" s="145"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="402"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="401"/>
-      <c r="J9" s="402"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="401"/>
-      <c r="M9" s="402"/>
-      <c r="N9" s="403"/>
-      <c r="O9" s="387"/>
-      <c r="P9" s="388"/>
-      <c r="Q9" s="388"/>
-      <c r="R9" s="389"/>
+      <c r="F9" s="414"/>
+      <c r="G9" s="415"/>
+      <c r="H9" s="416"/>
+      <c r="I9" s="414"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="416"/>
+      <c r="L9" s="414"/>
+      <c r="M9" s="415"/>
+      <c r="N9" s="416"/>
+      <c r="O9" s="400"/>
+      <c r="P9" s="401"/>
+      <c r="Q9" s="401"/>
+      <c r="R9" s="402"/>
       <c r="S9" s="145"/>
       <c r="T9" s="145"/>
       <c r="U9" s="151"/>
@@ -36169,31 +36151,31 @@
       <c r="C10" s="145"/>
       <c r="D10" s="145"/>
       <c r="E10" s="145"/>
-      <c r="F10" s="390">
+      <c r="F10" s="403">
         <f>'Data Record'!B15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="391"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="393">
+      <c r="G10" s="404"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="406">
         <f>'Data Record'!Q15</f>
         <v>0</v>
       </c>
-      <c r="J10" s="394"/>
-      <c r="K10" s="395"/>
-      <c r="L10" s="393">
+      <c r="J10" s="407"/>
+      <c r="K10" s="408"/>
+      <c r="L10" s="406">
         <f>'Data Record'!Z15</f>
         <v>0</v>
       </c>
-      <c r="M10" s="394"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="396">
+      <c r="M10" s="407"/>
+      <c r="N10" s="407"/>
+      <c r="O10" s="409">
         <f>'Uncertainty Budget 0 to 13mm'!O8</f>
         <v>2.310180368138673E-3</v>
       </c>
-      <c r="P10" s="397"/>
-      <c r="Q10" s="397"/>
-      <c r="R10" s="398"/>
+      <c r="P10" s="410"/>
+      <c r="Q10" s="410"/>
+      <c r="R10" s="411"/>
       <c r="S10" s="145"/>
       <c r="T10" s="145"/>
       <c r="U10" s="151"/>
@@ -36206,31 +36188,31 @@
       <c r="C11" s="145"/>
       <c r="D11" s="145"/>
       <c r="E11" s="145"/>
-      <c r="F11" s="405">
+      <c r="F11" s="377">
         <f>'Data Record'!B16</f>
         <v>1</v>
       </c>
-      <c r="G11" s="406"/>
-      <c r="H11" s="407"/>
-      <c r="I11" s="408">
+      <c r="G11" s="378"/>
+      <c r="H11" s="379"/>
+      <c r="I11" s="380">
         <f>'Data Record'!Q16</f>
         <v>1</v>
       </c>
-      <c r="J11" s="409"/>
-      <c r="K11" s="410"/>
-      <c r="L11" s="408">
+      <c r="J11" s="381"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="380">
         <f>'Data Record'!Z16</f>
         <v>0</v>
       </c>
-      <c r="M11" s="409"/>
-      <c r="N11" s="409"/>
-      <c r="O11" s="411">
+      <c r="M11" s="381"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O8</f>
         <v>2.310180368138673E-3</v>
       </c>
-      <c r="P11" s="412"/>
-      <c r="Q11" s="412"/>
-      <c r="R11" s="413"/>
+      <c r="P11" s="384"/>
+      <c r="Q11" s="384"/>
+      <c r="R11" s="385"/>
       <c r="S11" s="145"/>
       <c r="T11" s="145"/>
       <c r="U11" s="151"/>
@@ -36243,31 +36225,31 @@
       <c r="C12" s="145"/>
       <c r="D12" s="145"/>
       <c r="E12" s="145"/>
-      <c r="F12" s="405">
+      <c r="F12" s="377">
         <f>'Data Record'!B17</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="406"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="408">
+      <c r="G12" s="378"/>
+      <c r="H12" s="379"/>
+      <c r="I12" s="380">
         <f>'Data Record'!Q17</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J12" s="409"/>
-      <c r="K12" s="410"/>
-      <c r="L12" s="408">
+      <c r="J12" s="381"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="380">
         <f>'Data Record'!Z17</f>
         <v>0</v>
       </c>
-      <c r="M12" s="409"/>
-      <c r="N12" s="409"/>
-      <c r="O12" s="411">
+      <c r="M12" s="381"/>
+      <c r="N12" s="381"/>
+      <c r="O12" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O9</f>
         <v>2.3102185322316734E-3</v>
       </c>
-      <c r="P12" s="412"/>
-      <c r="Q12" s="412"/>
-      <c r="R12" s="413"/>
+      <c r="P12" s="384"/>
+      <c r="Q12" s="384"/>
+      <c r="R12" s="385"/>
       <c r="S12" s="145"/>
       <c r="T12" s="145"/>
       <c r="U12" s="151"/>
@@ -36280,31 +36262,31 @@
       <c r="C13" s="145"/>
       <c r="D13" s="145"/>
       <c r="E13" s="145"/>
-      <c r="F13" s="405">
+      <c r="F13" s="377">
         <f>'Data Record'!B18</f>
         <v>1.2</v>
       </c>
-      <c r="G13" s="406"/>
-      <c r="H13" s="407"/>
-      <c r="I13" s="408">
+      <c r="G13" s="378"/>
+      <c r="H13" s="379"/>
+      <c r="I13" s="380">
         <f>'Data Record'!Q18</f>
         <v>1.2</v>
       </c>
-      <c r="J13" s="409"/>
-      <c r="K13" s="410"/>
-      <c r="L13" s="408">
+      <c r="J13" s="381"/>
+      <c r="K13" s="382"/>
+      <c r="L13" s="380">
         <f>'Data Record'!Z18</f>
         <v>0</v>
       </c>
-      <c r="M13" s="409"/>
-      <c r="N13" s="409"/>
-      <c r="O13" s="411">
+      <c r="M13" s="381"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O10</f>
         <v>2.3102265466111039E-3</v>
       </c>
-      <c r="P13" s="412"/>
-      <c r="Q13" s="412"/>
-      <c r="R13" s="413"/>
+      <c r="P13" s="384"/>
+      <c r="Q13" s="384"/>
+      <c r="R13" s="385"/>
       <c r="S13" s="145"/>
       <c r="T13" s="145"/>
       <c r="U13" s="151"/>
@@ -36317,31 +36299,31 @@
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
       <c r="E14" s="145"/>
-      <c r="F14" s="405">
+      <c r="F14" s="377">
         <f>'Data Record'!B19</f>
         <v>1.3</v>
       </c>
-      <c r="G14" s="406"/>
-      <c r="H14" s="407"/>
-      <c r="I14" s="408">
+      <c r="G14" s="378"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="380">
         <f>'Data Record'!Q19</f>
         <v>1.3</v>
       </c>
-      <c r="J14" s="409"/>
-      <c r="K14" s="410"/>
-      <c r="L14" s="408">
+      <c r="J14" s="381"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="380">
         <f>'Data Record'!Z19</f>
         <v>0</v>
       </c>
-      <c r="M14" s="409"/>
-      <c r="N14" s="409"/>
-      <c r="O14" s="411">
+      <c r="M14" s="381"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O11</f>
         <v>2.3102353242328657E-3</v>
       </c>
-      <c r="P14" s="412"/>
-      <c r="Q14" s="412"/>
-      <c r="R14" s="413"/>
+      <c r="P14" s="384"/>
+      <c r="Q14" s="384"/>
+      <c r="R14" s="385"/>
       <c r="S14" s="145"/>
       <c r="T14" s="145"/>
       <c r="U14" s="151"/>
@@ -36354,31 +36336,31 @@
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
       <c r="E15" s="145"/>
-      <c r="F15" s="405">
+      <c r="F15" s="377">
         <f>'Data Record'!B20</f>
         <v>1.4</v>
       </c>
-      <c r="G15" s="406"/>
-      <c r="H15" s="407"/>
-      <c r="I15" s="408">
+      <c r="G15" s="378"/>
+      <c r="H15" s="379"/>
+      <c r="I15" s="380">
         <f>'Data Record'!Q20</f>
         <v>1.4</v>
       </c>
-      <c r="J15" s="409"/>
-      <c r="K15" s="410"/>
-      <c r="L15" s="408">
+      <c r="J15" s="381"/>
+      <c r="K15" s="382"/>
+      <c r="L15" s="380">
         <f>'Data Record'!Z20</f>
         <v>0</v>
       </c>
-      <c r="M15" s="409"/>
-      <c r="N15" s="409"/>
-      <c r="O15" s="411">
+      <c r="M15" s="381"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O12</f>
         <v>2.3102448650882588E-3</v>
       </c>
-      <c r="P15" s="412"/>
-      <c r="Q15" s="412"/>
-      <c r="R15" s="413"/>
+      <c r="P15" s="384"/>
+      <c r="Q15" s="384"/>
+      <c r="R15" s="385"/>
       <c r="S15" s="145"/>
       <c r="T15" s="145"/>
       <c r="U15" s="151"/>
@@ -36391,31 +36373,31 @@
       <c r="C16" s="145"/>
       <c r="D16" s="145"/>
       <c r="E16" s="145"/>
-      <c r="F16" s="405">
+      <c r="F16" s="377">
         <f>'Data Record'!B21</f>
         <v>1.5</v>
       </c>
-      <c r="G16" s="406"/>
-      <c r="H16" s="407"/>
-      <c r="I16" s="408">
+      <c r="G16" s="378"/>
+      <c r="H16" s="379"/>
+      <c r="I16" s="380">
         <f>'Data Record'!Q21</f>
         <v>1.5</v>
       </c>
-      <c r="J16" s="409"/>
-      <c r="K16" s="410"/>
-      <c r="L16" s="408">
+      <c r="J16" s="381"/>
+      <c r="K16" s="382"/>
+      <c r="L16" s="380">
         <f>'Data Record'!Z21</f>
         <v>0</v>
       </c>
-      <c r="M16" s="409"/>
-      <c r="N16" s="409"/>
-      <c r="O16" s="411">
+      <c r="M16" s="381"/>
+      <c r="N16" s="381"/>
+      <c r="O16" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O13</f>
         <v>2.3102551691678275E-3</v>
       </c>
-      <c r="P16" s="412"/>
-      <c r="Q16" s="412"/>
-      <c r="R16" s="413"/>
+      <c r="P16" s="384"/>
+      <c r="Q16" s="384"/>
+      <c r="R16" s="385"/>
       <c r="S16" s="145"/>
       <c r="T16" s="145"/>
       <c r="U16" s="151"/>
@@ -36428,31 +36410,31 @@
       <c r="C17" s="145"/>
       <c r="D17" s="145"/>
       <c r="E17" s="145"/>
-      <c r="F17" s="405">
+      <c r="F17" s="377">
         <f>'Data Record'!B22</f>
         <v>2</v>
       </c>
-      <c r="G17" s="406"/>
-      <c r="H17" s="407"/>
-      <c r="I17" s="408">
+      <c r="G17" s="378"/>
+      <c r="H17" s="379"/>
+      <c r="I17" s="380">
         <f>'Data Record'!Q22</f>
         <v>2</v>
       </c>
-      <c r="J17" s="409"/>
-      <c r="K17" s="410"/>
-      <c r="L17" s="408">
+      <c r="J17" s="381"/>
+      <c r="K17" s="382"/>
+      <c r="L17" s="380">
         <f>'Data Record'!Z22</f>
         <v>0</v>
       </c>
-      <c r="M17" s="409"/>
-      <c r="N17" s="409"/>
-      <c r="O17" s="411">
+      <c r="M17" s="381"/>
+      <c r="N17" s="381"/>
+      <c r="O17" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O14</f>
         <v>2.3102662364613592E-3</v>
       </c>
-      <c r="P17" s="412"/>
-      <c r="Q17" s="412"/>
-      <c r="R17" s="413"/>
+      <c r="P17" s="384"/>
+      <c r="Q17" s="384"/>
+      <c r="R17" s="385"/>
       <c r="S17" s="145"/>
       <c r="T17" s="145"/>
       <c r="U17" s="151"/>
@@ -36465,31 +36447,31 @@
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
       <c r="E18" s="145"/>
-      <c r="F18" s="405">
+      <c r="F18" s="377">
         <f>'Data Record'!B23</f>
         <v>3</v>
       </c>
-      <c r="G18" s="406"/>
-      <c r="H18" s="407"/>
-      <c r="I18" s="408">
+      <c r="G18" s="378"/>
+      <c r="H18" s="379"/>
+      <c r="I18" s="380">
         <f>'Data Record'!Q23</f>
         <v>3</v>
       </c>
-      <c r="J18" s="409"/>
-      <c r="K18" s="410"/>
-      <c r="L18" s="408">
+      <c r="J18" s="381"/>
+      <c r="K18" s="382"/>
+      <c r="L18" s="380">
         <f>'Data Record'!Z23</f>
         <v>0</v>
       </c>
-      <c r="M18" s="409"/>
-      <c r="N18" s="409"/>
-      <c r="O18" s="411">
+      <c r="M18" s="381"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O15</f>
         <v>2.3103330207281088E-3</v>
       </c>
-      <c r="P18" s="412"/>
-      <c r="Q18" s="412"/>
-      <c r="R18" s="413"/>
+      <c r="P18" s="384"/>
+      <c r="Q18" s="384"/>
+      <c r="R18" s="385"/>
       <c r="S18" s="145"/>
       <c r="T18" s="145"/>
       <c r="U18" s="151"/>
@@ -36502,31 +36484,31 @@
       <c r="C19" s="145"/>
       <c r="D19" s="145"/>
       <c r="E19" s="145"/>
-      <c r="F19" s="405">
+      <c r="F19" s="377">
         <f>'Data Record'!B24</f>
         <v>4</v>
       </c>
-      <c r="G19" s="406"/>
-      <c r="H19" s="407"/>
-      <c r="I19" s="408">
+      <c r="G19" s="378"/>
+      <c r="H19" s="379"/>
+      <c r="I19" s="380">
         <f>'Data Record'!Q24</f>
         <v>4</v>
       </c>
-      <c r="J19" s="409"/>
-      <c r="K19" s="410"/>
-      <c r="L19" s="408">
+      <c r="J19" s="381"/>
+      <c r="K19" s="382"/>
+      <c r="L19" s="380">
         <f>'Data Record'!Z24</f>
         <v>0</v>
       </c>
-      <c r="M19" s="409"/>
-      <c r="N19" s="409"/>
-      <c r="O19" s="411">
+      <c r="M19" s="381"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O16</f>
         <v>2.3105238222821539E-3</v>
       </c>
-      <c r="P19" s="412"/>
-      <c r="Q19" s="412"/>
-      <c r="R19" s="413"/>
+      <c r="P19" s="384"/>
+      <c r="Q19" s="384"/>
+      <c r="R19" s="385"/>
       <c r="S19" s="145"/>
       <c r="T19" s="145"/>
       <c r="U19" s="151"/>
@@ -36539,31 +36521,31 @@
       <c r="C20" s="145"/>
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
-      <c r="F20" s="405">
+      <c r="F20" s="377">
         <f>'Data Record'!B25</f>
         <v>5</v>
       </c>
-      <c r="G20" s="406"/>
-      <c r="H20" s="407"/>
-      <c r="I20" s="408">
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="I20" s="380">
         <f>'Data Record'!Q25</f>
         <v>5</v>
       </c>
-      <c r="J20" s="409"/>
-      <c r="K20" s="410"/>
-      <c r="L20" s="408">
+      <c r="J20" s="381"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="380">
         <f>'Data Record'!Z25</f>
         <v>0</v>
       </c>
-      <c r="M20" s="409"/>
-      <c r="N20" s="409"/>
-      <c r="O20" s="411">
+      <c r="M20" s="381"/>
+      <c r="N20" s="381"/>
+      <c r="O20" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O17</f>
         <v>2.3107909179903461E-3</v>
       </c>
-      <c r="P20" s="412"/>
-      <c r="Q20" s="412"/>
-      <c r="R20" s="413"/>
+      <c r="P20" s="384"/>
+      <c r="Q20" s="384"/>
+      <c r="R20" s="385"/>
       <c r="S20" s="145"/>
       <c r="T20" s="145"/>
       <c r="U20" s="151"/>
@@ -36576,31 +36558,31 @@
       <c r="C21" s="145"/>
       <c r="D21" s="145"/>
       <c r="E21" s="145"/>
-      <c r="F21" s="405">
+      <c r="F21" s="377">
         <f>'Data Record'!B26</f>
         <v>6</v>
       </c>
-      <c r="G21" s="406"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="408">
+      <c r="G21" s="378"/>
+      <c r="H21" s="379"/>
+      <c r="I21" s="380">
         <f>'Data Record'!Q26</f>
         <v>6</v>
       </c>
-      <c r="J21" s="409"/>
-      <c r="K21" s="410"/>
-      <c r="L21" s="408">
+      <c r="J21" s="381"/>
+      <c r="K21" s="382"/>
+      <c r="L21" s="380">
         <f>'Data Record'!Z26</f>
         <v>0</v>
       </c>
-      <c r="M21" s="409"/>
-      <c r="N21" s="409"/>
-      <c r="O21" s="411">
+      <c r="M21" s="381"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O18</f>
         <v>2.3111342814009458E-3</v>
       </c>
-      <c r="P21" s="412"/>
-      <c r="Q21" s="412"/>
-      <c r="R21" s="413"/>
+      <c r="P21" s="384"/>
+      <c r="Q21" s="384"/>
+      <c r="R21" s="385"/>
       <c r="S21" s="145"/>
       <c r="T21" s="145"/>
       <c r="U21" s="151"/>
@@ -36613,31 +36595,31 @@
       <c r="C22" s="145"/>
       <c r="D22" s="145"/>
       <c r="E22" s="145"/>
-      <c r="F22" s="405">
+      <c r="F22" s="377">
         <f>'Data Record'!B27</f>
         <v>7</v>
       </c>
-      <c r="G22" s="406"/>
-      <c r="H22" s="407"/>
-      <c r="I22" s="408">
+      <c r="G22" s="378"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="380">
         <f>'Data Record'!Q27</f>
         <v>7</v>
       </c>
-      <c r="J22" s="409"/>
-      <c r="K22" s="410"/>
-      <c r="L22" s="408">
+      <c r="J22" s="381"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="380">
         <f>'Data Record'!Z27</f>
         <v>0</v>
       </c>
-      <c r="M22" s="409"/>
-      <c r="N22" s="409"/>
-      <c r="O22" s="411">
+      <c r="M22" s="381"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O19</f>
         <v>2.3115538785270255E-3</v>
       </c>
-      <c r="P22" s="412"/>
-      <c r="Q22" s="412"/>
-      <c r="R22" s="413"/>
+      <c r="P22" s="384"/>
+      <c r="Q22" s="384"/>
+      <c r="R22" s="385"/>
       <c r="S22" s="145"/>
       <c r="T22" s="145"/>
       <c r="U22" s="151"/>
@@ -36650,31 +36632,31 @@
       <c r="C23" s="145"/>
       <c r="D23" s="145"/>
       <c r="E23" s="145"/>
-      <c r="F23" s="405">
+      <c r="F23" s="377">
         <f>'Data Record'!B28</f>
         <v>8</v>
       </c>
-      <c r="G23" s="406"/>
-      <c r="H23" s="407"/>
-      <c r="I23" s="408">
+      <c r="G23" s="378"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="380">
         <f>'Data Record'!Q28</f>
         <v>8</v>
       </c>
-      <c r="J23" s="409"/>
-      <c r="K23" s="410"/>
-      <c r="L23" s="408">
+      <c r="J23" s="381"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="380">
         <f>'Data Record'!Z28</f>
         <v>0</v>
       </c>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
-      <c r="O23" s="411">
+      <c r="M23" s="381"/>
+      <c r="N23" s="381"/>
+      <c r="O23" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O20</f>
         <v>2.3120496678632721E-3</v>
       </c>
-      <c r="P23" s="412"/>
-      <c r="Q23" s="412"/>
-      <c r="R23" s="413"/>
+      <c r="P23" s="384"/>
+      <c r="Q23" s="384"/>
+      <c r="R23" s="385"/>
       <c r="S23" s="145"/>
       <c r="T23" s="145"/>
       <c r="U23" s="151"/>
@@ -36687,31 +36669,31 @@
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
       <c r="E24" s="145"/>
-      <c r="F24" s="405">
+      <c r="F24" s="377">
         <f>'Data Record'!B29</f>
         <v>9</v>
       </c>
-      <c r="G24" s="406"/>
-      <c r="H24" s="407"/>
-      <c r="I24" s="408">
+      <c r="G24" s="378"/>
+      <c r="H24" s="379"/>
+      <c r="I24" s="380">
         <f>'Data Record'!Q29</f>
         <v>9</v>
       </c>
-      <c r="J24" s="409"/>
-      <c r="K24" s="410"/>
-      <c r="L24" s="408">
+      <c r="J24" s="381"/>
+      <c r="K24" s="382"/>
+      <c r="L24" s="380">
         <f>'Data Record'!Z29</f>
         <v>0</v>
       </c>
-      <c r="M24" s="409"/>
-      <c r="N24" s="409"/>
-      <c r="O24" s="411">
+      <c r="M24" s="381"/>
+      <c r="N24" s="381"/>
+      <c r="O24" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O21</f>
         <v>2.3126216004064884E-3</v>
       </c>
-      <c r="P24" s="412"/>
-      <c r="Q24" s="412"/>
-      <c r="R24" s="413"/>
+      <c r="P24" s="384"/>
+      <c r="Q24" s="384"/>
+      <c r="R24" s="385"/>
       <c r="S24" s="145"/>
       <c r="T24" s="145"/>
       <c r="U24" s="151"/>
@@ -36724,31 +36706,31 @@
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
       <c r="E25" s="145"/>
-      <c r="F25" s="405">
+      <c r="F25" s="377">
         <f>'Data Record'!B30</f>
         <v>10</v>
       </c>
-      <c r="G25" s="406"/>
-      <c r="H25" s="407"/>
-      <c r="I25" s="408">
+      <c r="G25" s="378"/>
+      <c r="H25" s="379"/>
+      <c r="I25" s="380">
         <f>'Data Record'!Q30</f>
         <v>10</v>
       </c>
-      <c r="J25" s="409"/>
-      <c r="K25" s="410"/>
-      <c r="L25" s="408">
+      <c r="J25" s="381"/>
+      <c r="K25" s="382"/>
+      <c r="L25" s="380">
         <f>'Data Record'!Z30</f>
         <v>0</v>
       </c>
-      <c r="M25" s="409"/>
-      <c r="N25" s="409"/>
-      <c r="O25" s="411">
+      <c r="M25" s="381"/>
+      <c r="N25" s="381"/>
+      <c r="O25" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O22</f>
         <v>2.3132696196797582E-3</v>
       </c>
-      <c r="P25" s="412"/>
-      <c r="Q25" s="412"/>
-      <c r="R25" s="413"/>
+      <c r="P25" s="384"/>
+      <c r="Q25" s="384"/>
+      <c r="R25" s="385"/>
       <c r="S25" s="145"/>
       <c r="T25" s="145"/>
       <c r="U25" s="151"/>
@@ -36761,31 +36743,31 @@
       <c r="C26" s="145"/>
       <c r="D26" s="145"/>
       <c r="E26" s="145"/>
-      <c r="F26" s="405">
+      <c r="F26" s="377">
         <f>'Data Record'!B31</f>
         <v>11</v>
       </c>
-      <c r="G26" s="406"/>
-      <c r="H26" s="407"/>
-      <c r="I26" s="408">
+      <c r="G26" s="378"/>
+      <c r="H26" s="379"/>
+      <c r="I26" s="380">
         <f>'Data Record'!Q31</f>
         <v>11</v>
       </c>
-      <c r="J26" s="409"/>
-      <c r="K26" s="410"/>
-      <c r="L26" s="408">
+      <c r="J26" s="381"/>
+      <c r="K26" s="382"/>
+      <c r="L26" s="380">
         <f>'Data Record'!Z31</f>
         <v>0</v>
       </c>
-      <c r="M26" s="409"/>
-      <c r="N26" s="409"/>
-      <c r="O26" s="411">
+      <c r="M26" s="381"/>
+      <c r="N26" s="381"/>
+      <c r="O26" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O23</f>
         <v>2.3142745443586999E-3</v>
       </c>
-      <c r="P26" s="412"/>
-      <c r="Q26" s="412"/>
-      <c r="R26" s="413"/>
+      <c r="P26" s="384"/>
+      <c r="Q26" s="384"/>
+      <c r="R26" s="385"/>
       <c r="S26" s="145"/>
       <c r="T26" s="145"/>
       <c r="U26" s="151"/>
@@ -36798,31 +36780,31 @@
       <c r="C27" s="145"/>
       <c r="D27" s="145"/>
       <c r="E27" s="145"/>
-      <c r="F27" s="405">
+      <c r="F27" s="377">
         <f>'Data Record'!B32</f>
         <v>12</v>
       </c>
-      <c r="G27" s="406"/>
-      <c r="H27" s="407"/>
-      <c r="I27" s="408">
+      <c r="G27" s="378"/>
+      <c r="H27" s="379"/>
+      <c r="I27" s="380">
         <f>'Data Record'!Q32</f>
         <v>12</v>
       </c>
-      <c r="J27" s="409"/>
-      <c r="K27" s="410"/>
-      <c r="L27" s="408">
+      <c r="J27" s="381"/>
+      <c r="K27" s="382"/>
+      <c r="L27" s="380">
         <f>'Data Record'!Z32</f>
         <v>0</v>
       </c>
-      <c r="M27" s="409"/>
-      <c r="N27" s="409"/>
-      <c r="O27" s="411">
+      <c r="M27" s="381"/>
+      <c r="N27" s="381"/>
+      <c r="O27" s="383">
         <f>'Uncertainty Budget 0 to 13mm'!O24</f>
         <v>2.3150744408477813E-3</v>
       </c>
-      <c r="P27" s="412"/>
-      <c r="Q27" s="412"/>
-      <c r="R27" s="413"/>
+      <c r="P27" s="384"/>
+      <c r="Q27" s="384"/>
+      <c r="R27" s="385"/>
       <c r="S27" s="145"/>
       <c r="T27" s="145"/>
       <c r="U27" s="151"/>
@@ -36835,31 +36817,31 @@
       <c r="C28" s="145"/>
       <c r="D28" s="145"/>
       <c r="E28" s="145"/>
-      <c r="F28" s="415">
+      <c r="F28" s="386">
         <f>'Data Record'!B33</f>
         <v>13</v>
       </c>
-      <c r="G28" s="416"/>
-      <c r="H28" s="417"/>
-      <c r="I28" s="418">
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="389">
         <f>'Data Record'!Q33</f>
         <v>13</v>
       </c>
-      <c r="J28" s="419"/>
-      <c r="K28" s="420"/>
-      <c r="L28" s="418">
+      <c r="J28" s="390"/>
+      <c r="K28" s="391"/>
+      <c r="L28" s="389">
         <f>'Data Record'!Z33</f>
         <v>0</v>
       </c>
-      <c r="M28" s="419"/>
-      <c r="N28" s="419"/>
-      <c r="O28" s="421">
+      <c r="M28" s="390"/>
+      <c r="N28" s="390"/>
+      <c r="O28" s="392">
         <f>'Uncertainty Budget 0 to 13mm'!O25</f>
         <v>2.31595020096144E-3</v>
       </c>
-      <c r="P28" s="422"/>
-      <c r="Q28" s="422"/>
-      <c r="R28" s="423"/>
+      <c r="P28" s="393"/>
+      <c r="Q28" s="393"/>
+      <c r="R28" s="394"/>
       <c r="S28" s="145"/>
       <c r="T28" s="145"/>
       <c r="U28" s="151"/>
@@ -36965,29 +36947,29 @@
     </row>
     <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="149"/>
-      <c r="B33" s="414" t="s">
+      <c r="B33" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="414"/>
-      <c r="D33" s="414"/>
-      <c r="E33" s="414"/>
-      <c r="F33" s="414"/>
-      <c r="G33" s="414"/>
-      <c r="H33" s="414"/>
-      <c r="I33" s="414"/>
-      <c r="J33" s="414"/>
-      <c r="K33" s="414"/>
-      <c r="L33" s="414"/>
-      <c r="M33" s="414"/>
-      <c r="N33" s="414"/>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
-      <c r="T33" s="414"/>
-      <c r="U33" s="414"/>
-      <c r="V33" s="414"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="376"/>
+      <c r="E33" s="376"/>
+      <c r="F33" s="376"/>
+      <c r="G33" s="376"/>
+      <c r="H33" s="376"/>
+      <c r="I33" s="376"/>
+      <c r="J33" s="376"/>
+      <c r="K33" s="376"/>
+      <c r="L33" s="376"/>
+      <c r="M33" s="376"/>
+      <c r="N33" s="376"/>
+      <c r="O33" s="376"/>
+      <c r="P33" s="376"/>
+      <c r="Q33" s="376"/>
+      <c r="R33" s="376"/>
+      <c r="S33" s="376"/>
+      <c r="T33" s="376"/>
+      <c r="U33" s="376"/>
+      <c r="V33" s="376"/>
       <c r="W33" s="149"/>
     </row>
     <row r="34" spans="1:23" ht="17.100000000000001" customHeight="1">
@@ -38342,79 +38324,6 @@
     <row r="111" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B33:V33"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:R12"/>
     <mergeCell ref="B3:V3"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="O8:R9"/>
@@ -38425,6 +38334,79 @@
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="L8:N9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="B33:V33"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38444,7 +38426,7 @@
   </sheetPr>
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8:N26"/>
     </sheetView>
   </sheetViews>
@@ -38903,22 +38885,22 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1">
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="418" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="424"/>
-      <c r="J2" s="424"/>
-      <c r="K2" s="424"/>
-      <c r="L2" s="424"/>
-      <c r="M2" s="424"/>
-      <c r="N2" s="424"/>
-      <c r="O2" s="424"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="418"/>
+      <c r="F2" s="418"/>
+      <c r="G2" s="418"/>
+      <c r="H2" s="418"/>
+      <c r="I2" s="418"/>
+      <c r="J2" s="418"/>
+      <c r="K2" s="418"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="418"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="418"/>
     </row>
     <row r="3" spans="1:16" ht="9.75" customHeight="1">
       <c r="B3" s="156"/>
@@ -38935,11 +38917,11 @@
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="O4" s="3" t="s">
@@ -38950,32 +38932,32 @@
       <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="426" t="s">
+      <c r="C5" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="427"/>
-      <c r="E5" s="426" t="s">
+      <c r="D5" s="421"/>
+      <c r="E5" s="420" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="427"/>
-      <c r="G5" s="428" t="s">
+      <c r="F5" s="421"/>
+      <c r="G5" s="422" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="429"/>
-      <c r="I5" s="426" t="s">
+      <c r="H5" s="423"/>
+      <c r="I5" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="427"/>
-      <c r="K5" s="430" t="s">
+      <c r="J5" s="421"/>
+      <c r="K5" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="430" t="s">
+      <c r="L5" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="430" t="s">
+      <c r="M5" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="430" t="s">
+      <c r="N5" s="424" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="248" t="s">
@@ -38986,26 +38968,26 @@
       <c r="B6" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="432" t="s">
+      <c r="C6" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="433"/>
-      <c r="E6" s="432" t="s">
+      <c r="D6" s="427"/>
+      <c r="E6" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="433"/>
-      <c r="G6" s="432" t="s">
+      <c r="F6" s="427"/>
+      <c r="G6" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="433"/>
-      <c r="I6" s="432" t="s">
+      <c r="H6" s="427"/>
+      <c r="I6" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="433"/>
-      <c r="K6" s="431"/>
-      <c r="L6" s="431"/>
-      <c r="M6" s="431"/>
-      <c r="N6" s="431"/>
+      <c r="J6" s="427"/>
+      <c r="K6" s="425"/>
+      <c r="L6" s="425"/>
+      <c r="M6" s="425"/>
+      <c r="N6" s="425"/>
       <c r="O6" s="250"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1">
@@ -41976,137 +41958,137 @@
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:29" ht="26.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="444"/>
+      <c r="B2" s="429"/>
+      <c r="C2" s="429"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="430"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="442" t="s">
+      <c r="G2" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="444"/>
+      <c r="H2" s="429"/>
+      <c r="I2" s="429"/>
+      <c r="J2" s="429"/>
+      <c r="K2" s="430"/>
       <c r="L2" s="43"/>
-      <c r="M2" s="442" t="s">
+      <c r="M2" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="443"/>
-      <c r="O2" s="443"/>
-      <c r="P2" s="443"/>
-      <c r="Q2" s="444"/>
+      <c r="N2" s="429"/>
+      <c r="O2" s="429"/>
+      <c r="P2" s="429"/>
+      <c r="Q2" s="430"/>
       <c r="R2" s="43"/>
-      <c r="S2" s="442" t="s">
+      <c r="S2" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="443"/>
-      <c r="U2" s="443"/>
-      <c r="V2" s="443"/>
-      <c r="W2" s="444"/>
+      <c r="T2" s="429"/>
+      <c r="U2" s="429"/>
+      <c r="V2" s="429"/>
+      <c r="W2" s="430"/>
       <c r="X2" s="43"/>
-      <c r="Y2" s="442" t="s">
+      <c r="Y2" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="443"/>
-      <c r="AA2" s="443"/>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="444"/>
+      <c r="Z2" s="429"/>
+      <c r="AA2" s="429"/>
+      <c r="AB2" s="429"/>
+      <c r="AC2" s="430"/>
     </row>
     <row r="3" spans="1:29" ht="26.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="436"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="434" t="s">
+      <c r="G3" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="435"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="436"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="433"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="434" t="s">
+      <c r="M3" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="435"/>
-      <c r="O3" s="435"/>
-      <c r="P3" s="435"/>
-      <c r="Q3" s="436"/>
+      <c r="N3" s="432"/>
+      <c r="O3" s="432"/>
+      <c r="P3" s="432"/>
+      <c r="Q3" s="433"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="434" t="s">
+      <c r="S3" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="435"/>
-      <c r="U3" s="435"/>
-      <c r="V3" s="435"/>
-      <c r="W3" s="436"/>
+      <c r="T3" s="432"/>
+      <c r="U3" s="432"/>
+      <c r="V3" s="432"/>
+      <c r="W3" s="433"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="434" t="s">
+      <c r="Y3" s="431" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="435"/>
-      <c r="AA3" s="435"/>
-      <c r="AB3" s="435"/>
-      <c r="AC3" s="436"/>
+      <c r="Z3" s="432"/>
+      <c r="AA3" s="432"/>
+      <c r="AB3" s="432"/>
+      <c r="AC3" s="433"/>
     </row>
     <row r="4" spans="1:29" ht="26.25">
-      <c r="A4" s="437" t="s">
+      <c r="A4" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="438"/>
-      <c r="C4" s="439">
+      <c r="B4" s="435"/>
+      <c r="C4" s="436">
         <v>42711</v>
       </c>
-      <c r="D4" s="440"/>
-      <c r="E4" s="441"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="437" t="s">
+      <c r="G4" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="438"/>
-      <c r="I4" s="439">
+      <c r="H4" s="435"/>
+      <c r="I4" s="436">
         <v>42503</v>
       </c>
-      <c r="J4" s="440"/>
-      <c r="K4" s="441"/>
+      <c r="J4" s="437"/>
+      <c r="K4" s="438"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="437" t="s">
+      <c r="M4" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="438"/>
-      <c r="O4" s="439">
+      <c r="N4" s="435"/>
+      <c r="O4" s="436">
         <v>42701</v>
       </c>
-      <c r="P4" s="440"/>
-      <c r="Q4" s="441"/>
+      <c r="P4" s="437"/>
+      <c r="Q4" s="438"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="437" t="s">
+      <c r="S4" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="438"/>
-      <c r="U4" s="439">
+      <c r="T4" s="435"/>
+      <c r="U4" s="436">
         <v>42502</v>
       </c>
-      <c r="V4" s="440"/>
-      <c r="W4" s="441"/>
+      <c r="V4" s="437"/>
+      <c r="W4" s="438"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="437" t="s">
+      <c r="Y4" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="438"/>
-      <c r="AA4" s="439">
+      <c r="Z4" s="435"/>
+      <c r="AA4" s="436">
         <v>42530</v>
       </c>
-      <c r="AB4" s="440"/>
-      <c r="AC4" s="441"/>
+      <c r="AB4" s="437"/>
+      <c r="AC4" s="438"/>
     </row>
     <row r="5" spans="1:29" ht="26.25">
       <c r="A5" s="46">
@@ -44214,6 +44196,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:N4"/>
@@ -44226,14 +44216,6 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
